--- a/CatanDB.xlsx
+++ b/CatanDB.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklasbille/projects/CatanAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D54454-7EDE-2C46-BE59-3BB052EB6D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40304D2A-84E0-FA48-83B9-53CC6D7B7767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{36430CA0-0917-3746-988E-C7102F59D220}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="1" xr2:uid="{36430CA0-0917-3746-988E-C7102F59D220}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="127">
   <si>
     <t>Map string</t>
   </si>
@@ -65,21 +66,6 @@
     <t>PlayerFourPlacement</t>
   </si>
   <si>
-    <t>PlayerOnePoints</t>
-  </si>
-  <si>
-    <t>PlayerTwoPoints</t>
-  </si>
-  <si>
-    <t>PlayerThreePoints</t>
-  </si>
-  <si>
-    <t>PlayerFourPoints</t>
-  </si>
-  <si>
-    <t>WinningPlayer</t>
-  </si>
-  <si>
     <t>23-18, 40-45</t>
   </si>
   <si>
@@ -137,9 +123,6 @@
     <t>wh11,br12,or09,de00,sh06,sh05,wo10,br04,wo03,wh11,wo04,or08,wh08,sh10,sh9,br03,wh05,wo02,or06</t>
   </si>
   <si>
-    <t>Elo</t>
-  </si>
-  <si>
     <t>34-39,14-9</t>
   </si>
   <si>
@@ -159,18 +142,301 @@
   </si>
   <si>
     <t>wh9,or10,sh8,br12,sh5,de00,or3,sh11,wh06,wo11,or04,wo06,wh04,wo03,wo09,sh02,br08,sh10,br05</t>
+  </si>
+  <si>
+    <t>49-45,9-14</t>
+  </si>
+  <si>
+    <t>8-4,24-24-19</t>
+  </si>
+  <si>
+    <t>44-48,28-34</t>
+  </si>
+  <si>
+    <t>17-22, 47-43</t>
+  </si>
+  <si>
+    <t>wo,or,br,xx,xx,sh,xx,wh</t>
+  </si>
+  <si>
+    <t>wo5br10wh8or2sh9sh3sh4wh6sh4or11wh6wo11wo3wh5de0br12or8br10wo9</t>
+  </si>
+  <si>
+    <t>Player points</t>
+  </si>
+  <si>
+    <t>7,10,7,9</t>
+  </si>
+  <si>
+    <t>6,6,4,10</t>
+  </si>
+  <si>
+    <t>8,5,10,7</t>
+  </si>
+  <si>
+    <t>7,4,6,10</t>
+  </si>
+  <si>
+    <t>7,6,9,19</t>
+  </si>
+  <si>
+    <t>7,10,6,5</t>
+  </si>
+  <si>
+    <t>PointsFromSettlements</t>
+  </si>
+  <si>
+    <t>Points from cities</t>
+  </si>
+  <si>
+    <t>Points from VP cards</t>
+  </si>
+  <si>
+    <t>4,0,3,4</t>
+  </si>
+  <si>
+    <t>0,6,2,2</t>
+  </si>
+  <si>
+    <t>1,2,0,0</t>
+  </si>
+  <si>
+    <t>PlayerWithLargestArmy</t>
+  </si>
+  <si>
+    <t>PlayerWithLongestRoad</t>
+  </si>
+  <si>
+    <t>DiceStats</t>
+  </si>
+  <si>
+    <t>2,5,5,8,10,24,14,11,3,1,3</t>
+  </si>
+  <si>
+    <t>ResourceCardsDrawn</t>
+  </si>
+  <si>
+    <t>50,24,57,98,55</t>
+  </si>
+  <si>
+    <t>DiceStats ordering goes from 2-12</t>
+  </si>
+  <si>
+    <t>ResCardStats goes from wo, br, sh, wh, or</t>
+  </si>
+  <si>
+    <t>DevCardStats goes from knight, vp, mono, rb, yop</t>
+  </si>
+  <si>
+    <t>9-4,22-16</t>
+  </si>
+  <si>
+    <t>30-24,41-46</t>
+  </si>
+  <si>
+    <t>31-36,29-34</t>
+  </si>
+  <si>
+    <t>40-45, 20-25</t>
+  </si>
+  <si>
+    <t>5,10,6,5</t>
+  </si>
+  <si>
+    <t>5,2,2,3</t>
+  </si>
+  <si>
+    <t>0,6,4,2</t>
+  </si>
+  <si>
+    <t>0,0,0,0</t>
+  </si>
+  <si>
+    <t>3,3,2,6,7,9,6,7,3,2,2</t>
+  </si>
+  <si>
+    <t>45,32,38,35,36</t>
+  </si>
+  <si>
+    <t>sh,br,xx,xx,or,xx,wo,xx,wh</t>
+  </si>
+  <si>
+    <t>de0wh8wo5wo4wh3wh10sh2or11wo6sh11or9br6br12wh5or4br3sh9sh10wo8</t>
+  </si>
+  <si>
+    <t>ResourceStatsP1</t>
+  </si>
+  <si>
+    <t>ResourceStatsp2</t>
+  </si>
+  <si>
+    <t>ResourceStatsP4</t>
+  </si>
+  <si>
+    <t>ResourceStatsP3</t>
+  </si>
+  <si>
+    <t>42,15,27,34,3,0,5,4,1,0,10,0</t>
+  </si>
+  <si>
+    <t>66,25,41,56,3,0,7,10,7,0,8,0</t>
+  </si>
+  <si>
+    <t>50,23,27,37,2,0,11,0,1,0,22,0</t>
+  </si>
+  <si>
+    <t>49,19,30,38,3,0,8,5,2,0,12,0</t>
+  </si>
+  <si>
+    <t>31-25,39-34</t>
+  </si>
+  <si>
+    <t>41-45,35-30</t>
+  </si>
+  <si>
+    <t>14-19, 16-22</t>
+  </si>
+  <si>
+    <t>12-8, 24-18</t>
+  </si>
+  <si>
+    <t>5,4,4,10</t>
+  </si>
+  <si>
+    <t>3,1,2,5</t>
+  </si>
+  <si>
+    <t>2,2,2,2</t>
+  </si>
+  <si>
+    <t>0,1,0,1</t>
+  </si>
+  <si>
+    <t>1,5,6,8,6,6,15,5,2,1,1</t>
+  </si>
+  <si>
+    <t>50,28,55,35,32</t>
+  </si>
+  <si>
+    <t>ActivityStatsP2</t>
+  </si>
+  <si>
+    <t>ActivityStatsP1</t>
+  </si>
+  <si>
+    <t>ActivityStatsP4</t>
+  </si>
+  <si>
+    <t>ActivityStatsP3</t>
+  </si>
+  <si>
+    <t>11,2,23,1,2,2</t>
+  </si>
+  <si>
+    <t>0,0,28,1,7,4</t>
+  </si>
+  <si>
+    <t>9,2,15,1,0,0</t>
+  </si>
+  <si>
+    <t>12,2,42,1,1,0</t>
+  </si>
+  <si>
+    <t>51,27,24,39,2,0,10,0,1,5,21,0</t>
+  </si>
+  <si>
+    <t>54,21,33,34,3,11,6,0,3,0,18,0</t>
+  </si>
+  <si>
+    <t>37,21,16,29,1,0,7,4,1,4,12,0</t>
+  </si>
+  <si>
+    <t>81,40,41,66,3,0,12,4,4,2,30,0</t>
+  </si>
+  <si>
+    <t>xx,wh,xx,xx,xx,or,sh,wo,br</t>
+  </si>
+  <si>
+    <t>wh9wh12br11wo10sh5sh6wh4sh8de0sh11or3wo8br3br4or9or10wo6wh2wo5</t>
+  </si>
+  <si>
+    <t>ResourceStats ordering are:</t>
+  </si>
+  <si>
+    <t>Total ressource income</t>
+  </si>
+  <si>
+    <t>Total ressource loss</t>
+  </si>
+  <si>
+    <t>Total ressource score</t>
+  </si>
+  <si>
+    <t>Resouce gained by rolling dice</t>
+  </si>
+  <si>
+    <t>Ressource gained by robbing</t>
+  </si>
+  <si>
+    <t>Ressource gained by using dev cards</t>
+  </si>
+  <si>
+    <t>Ressource gained by trading</t>
+  </si>
+  <si>
+    <t>Ressource Lost by rolling 7</t>
+  </si>
+  <si>
+    <t>Ressource lost by getting robbed</t>
+  </si>
+  <si>
+    <t>Ressource lost by dev cards</t>
+  </si>
+  <si>
+    <t>Ressource lost by trading</t>
+  </si>
+  <si>
+    <t>Ressource gained by gold tiles</t>
+  </si>
+  <si>
+    <t>ActivityStats ordering:</t>
+  </si>
+  <si>
+    <t>Total times proposed to trade</t>
+  </si>
+  <si>
+    <t>Total successful trades with opponents</t>
+  </si>
+  <si>
+    <t>Amount of resources used</t>
+  </si>
+  <si>
+    <t>Amount of ressource income blocked</t>
+  </si>
+  <si>
+    <t>Amount of Dev cards bought</t>
+  </si>
+  <si>
+    <t>Amount of dev cards used</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -196,13 +462,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,23 +490,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9894F847-0D71-B07D-E034-A6B65E555588}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B6FD751-81B7-E947-967D-8A7DF4AB7B67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -256,7 +522,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23926800" y="469900"/>
+          <a:off x="3416300" y="6350000"/>
           <a:ext cx="7010400" cy="6578600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -586,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C339AD-142A-1A41-A84D-50BBD9E5CBA0}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,240 +866,516 @@
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.5" customWidth="1"/>
+    <col min="15" max="16" width="12.5" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.5" customWidth="1"/>
+    <col min="19" max="19" width="25.5" customWidth="1"/>
+    <col min="20" max="20" width="24.6640625" customWidth="1"/>
+    <col min="21" max="21" width="25" customWidth="1"/>
+    <col min="22" max="22" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="M7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="M8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>4</v>
       </c>
-      <c r="G2" s="2">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>9</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-      <c r="L3">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2">
-        <v>7</v>
-      </c>
-      <c r="H6" s="2">
-        <v>6</v>
-      </c>
-      <c r="I6">
-        <v>9</v>
-      </c>
-      <c r="J6">
-        <v>19</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
-      </c>
-      <c r="L6">
-        <v>1326</v>
+      <c r="M9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18083030-38C7-8F4C-9049-56F84FD42E43}">
+  <dimension ref="D3:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/CatanDB.xlsx
+++ b/CatanDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklasbille/projects/CatanAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40304D2A-84E0-FA48-83B9-53CC6D7B7767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A16858-4A86-7243-9BC2-81DE51944033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="1" xr2:uid="{36430CA0-0917-3746-988E-C7102F59D220}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{36430CA0-0917-3746-988E-C7102F59D220}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="149">
   <si>
     <t>Map string</t>
   </si>
@@ -418,6 +418,72 @@
   </si>
   <si>
     <t>Amount of dev cards used</t>
+  </si>
+  <si>
+    <t>22-16,36-31</t>
+  </si>
+  <si>
+    <t>34-28,13-8</t>
+  </si>
+  <si>
+    <t>14-9,44-40</t>
+  </si>
+  <si>
+    <t>25-19,43-47</t>
+  </si>
+  <si>
+    <t>xxxxwoxxshbrorwhxx</t>
+  </si>
+  <si>
+    <t>wo6or2br5sh3sh4or9sh10sh8wo5de0wh11br8br10wh6or3wh4wo9wo12wh11</t>
+  </si>
+  <si>
+    <t>4,5,10,5</t>
+  </si>
+  <si>
+    <t>4,5,5,3</t>
+  </si>
+  <si>
+    <t>0,0,2,0</t>
+  </si>
+  <si>
+    <t>0,0,1,0</t>
+  </si>
+  <si>
+    <t>1,3,5,8,10,13,12,5,5,3,2</t>
+  </si>
+  <si>
+    <t>49,38,44,43,25</t>
+  </si>
+  <si>
+    <t>0,0,16,3,0,0</t>
+  </si>
+  <si>
+    <t>6,0,27,2,1,1</t>
+  </si>
+  <si>
+    <t>8,0,48,9,5,4</t>
+  </si>
+  <si>
+    <t>0,0,19,1,3,3</t>
+  </si>
+  <si>
+    <t>79,24,55,59,8,7,5,5,6,0,13,0</t>
+  </si>
+  <si>
+    <t>42,27,15,36,3,0,3,6,5,4,12,0</t>
+  </si>
+  <si>
+    <t>49,20,29,44,2,0,3,4,5,1,10</t>
+  </si>
+  <si>
+    <t>43,24,19,36,5,0,2,12,2,2,8,0</t>
+  </si>
+  <si>
+    <t>Dev Card Stats</t>
+  </si>
+  <si>
+    <t>6,1,1,1,0</t>
   </si>
 </sst>
 </file>
@@ -852,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C339AD-142A-1A41-A84D-50BBD9E5CBA0}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,17 +939,19 @@
     <col min="11" max="11" width="20.6640625" customWidth="1"/>
     <col min="12" max="12" width="20.1640625" customWidth="1"/>
     <col min="13" max="13" width="23.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.5" customWidth="1"/>
-    <col min="15" max="16" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="20.5" customWidth="1"/>
+    <col min="15" max="15" width="16.1640625" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
     <col min="17" max="17" width="12.6640625" customWidth="1"/>
     <col min="18" max="18" width="13.5" customWidth="1"/>
-    <col min="19" max="19" width="25.5" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
     <col min="20" max="20" width="24.6640625" customWidth="1"/>
-    <col min="21" max="21" width="25" customWidth="1"/>
-    <col min="22" max="22" width="27.33203125" customWidth="1"/>
+    <col min="21" max="21" width="26.1640625" customWidth="1"/>
+    <col min="22" max="22" width="29.5" customWidth="1"/>
+    <col min="23" max="23" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,31 +995,34 @@
         <v>58</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -978,9 +1049,9 @@
       <c r="J2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1004,7 +1075,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1028,7 +1099,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1052,7 +1123,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1076,7 +1147,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1119,9 +1190,9 @@
       <c r="N7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
@@ -1164,20 +1235,20 @@
       <c r="N8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>106</v>
       </c>
@@ -1220,33 +1291,105 @@
       <c r="N9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1254,8 +1397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18083030-38C7-8F4C-9049-56F84FD42E43}">
   <dimension ref="D3:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D7:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1380,6 +1523,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/CatanDB.xlsx
+++ b/CatanDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklasbille/projects/CatanAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A16858-4A86-7243-9BC2-81DE51944033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B116B84-32EE-1749-A77D-956755F5FAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{36430CA0-0917-3746-988E-C7102F59D220}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="150">
   <si>
     <t>Map string</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>6,1,1,1,0</t>
+  </si>
+  <si>
+    <t>Turns</t>
   </si>
 </sst>
 </file>
@@ -918,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C339AD-142A-1A41-A84D-50BBD9E5CBA0}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -951,7 +954,7 @@
     <col min="23" max="23" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1021,8 +1024,11 @@
       <c r="W1" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X1" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -1051,7 +1057,7 @@
       <c r="N2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1075,7 +1081,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1099,7 +1105,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1123,7 +1129,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1147,7 +1153,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1192,7 +1198,7 @@
       </c>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
@@ -1248,7 +1254,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>106</v>
       </c>
@@ -1316,7 +1322,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>132</v>
       </c>
@@ -1385,6 +1391,9 @@
       </c>
       <c r="W10" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="X10">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/CatanDB.xlsx
+++ b/CatanDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklasbille/projects/CatanAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B116B84-32EE-1749-A77D-956755F5FAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340ED758-3635-DE48-81A2-5008398D318F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{36430CA0-0917-3746-988E-C7102F59D220}"/>
+    <workbookView xWindow="18800" yWindow="500" windowWidth="10000" windowHeight="17500" xr2:uid="{36430CA0-0917-3746-988E-C7102F59D220}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="216">
   <si>
     <t>Map string</t>
   </si>
@@ -474,9 +474,6 @@
     <t>42,27,15,36,3,0,3,6,5,4,12,0</t>
   </si>
   <si>
-    <t>49,20,29,44,2,0,3,4,5,1,10</t>
-  </si>
-  <si>
     <t>43,24,19,36,5,0,2,12,2,2,8,0</t>
   </si>
   <si>
@@ -487,6 +484,207 @@
   </si>
   <si>
     <t>Turns</t>
+  </si>
+  <si>
+    <t>10-15,28-33</t>
+  </si>
+  <si>
+    <t>17-12,35-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-14,41-36 </t>
+  </si>
+  <si>
+    <t>44-48,18-13</t>
+  </si>
+  <si>
+    <t>wo2de0br5wo6wh9or10br8sh3wo4br11sh3wo4wh8wh5wh6or11or10sh9sh12</t>
+  </si>
+  <si>
+    <t>xxwhxxxxshwoxxbror</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>6,5,2,10</t>
+  </si>
+  <si>
+    <t>1,4,2,5</t>
+  </si>
+  <si>
+    <t>4,0,0,0</t>
+  </si>
+  <si>
+    <t>1,1,0,1</t>
+  </si>
+  <si>
+    <t>3,1,6,6,6,11,10,6,4,1,2</t>
+  </si>
+  <si>
+    <t>32,39,20,63,23</t>
+  </si>
+  <si>
+    <t>6,3,2,1,1</t>
+  </si>
+  <si>
+    <t>5,1,34,7,6,2</t>
+  </si>
+  <si>
+    <t>7,2,21,1,3,2</t>
+  </si>
+  <si>
+    <t>0,0,4,2,0,0</t>
+  </si>
+  <si>
+    <t>5,1,36,2,4,3</t>
+  </si>
+  <si>
+    <t>52,15,37,40,2,6,4,4,5,0,6</t>
+  </si>
+  <si>
+    <t>34,11,23,26,3,0,5,0,0,3,8,0</t>
+  </si>
+  <si>
+    <t>49,20,29,44,2,0,3,4,5,1,10,0</t>
+  </si>
+  <si>
+    <t>37,30,7,29,2,0,6,0,5,1,24,0</t>
+  </si>
+  <si>
+    <t>67,30,37,52,6,0,9,8,3,0,19,9</t>
+  </si>
+  <si>
+    <t>31-37,18-24</t>
+  </si>
+  <si>
+    <t>41-45, 22-16</t>
+  </si>
+  <si>
+    <t>9-5,12-7</t>
+  </si>
+  <si>
+    <t>40-35,34-29</t>
+  </si>
+  <si>
+    <t>shbrwoorxxwhxxxxxx</t>
+  </si>
+  <si>
+    <t>sh5br2wh6wo8or10br9de0br4wo3or11wo4wh3sh11sh6or5wo8wh11wh9sh10</t>
+  </si>
+  <si>
+    <t>5,10,5,5</t>
+  </si>
+  <si>
+    <t>2,4,3,5</t>
+  </si>
+  <si>
+    <t>2,4,2,0</t>
+  </si>
+  <si>
+    <t>1,0,0,0</t>
+  </si>
+  <si>
+    <t>2,2,5,9,13,9,9,7,6,7,5</t>
+  </si>
+  <si>
+    <t>82,39,75,49,70</t>
+  </si>
+  <si>
+    <t>5,1,1,0,0</t>
+  </si>
+  <si>
+    <t>0,0,28,2,3,2</t>
+  </si>
+  <si>
+    <t>18,1,49,14,0,0</t>
+  </si>
+  <si>
+    <t>6,0,30,1,3,0</t>
+  </si>
+  <si>
+    <t>10,2,31,1,1,1</t>
+  </si>
+  <si>
+    <t>90,61,29,72,5,0,13,8,1,1,52,0</t>
+  </si>
+  <si>
+    <t>87,45,42,72,0,0,15,0,11,0,34,0</t>
+  </si>
+  <si>
+    <t>76,47,29,64,3,0,9,14,0,0,33,0</t>
+  </si>
+  <si>
+    <t>71,37,34,55,4,0,12,8,0,0,29,0</t>
+  </si>
+  <si>
+    <t>OwnPlacement</t>
+  </si>
+  <si>
+    <t>Blue starts</t>
+  </si>
+  <si>
+    <t>31-37,16-21</t>
+  </si>
+  <si>
+    <t>44-48,30-24</t>
+  </si>
+  <si>
+    <t>41-46,13-9</t>
+  </si>
+  <si>
+    <t>12-7,19-14</t>
+  </si>
+  <si>
+    <t>wo8or4wo11br10wh3wo6wh12wo5de0wh11sh5sh9or2br9sh4wh10or6sh3br8</t>
+  </si>
+  <si>
+    <t>whorxxorwoshxxxxxx</t>
+  </si>
+  <si>
+    <t>5,10,5,3</t>
+  </si>
+  <si>
+    <t>2,4,4,0</t>
+  </si>
+  <si>
+    <t>3,3,1,3</t>
+  </si>
+  <si>
+    <t>01,0,0</t>
+  </si>
+  <si>
+    <t>0,5,3,1,9,7,6,4,2,3,2</t>
+  </si>
+  <si>
+    <t>36,21,25,30,20</t>
+  </si>
+  <si>
+    <t>3,1,0,0,0</t>
+  </si>
+  <si>
+    <t>21,,5,20,1,1,1</t>
+  </si>
+  <si>
+    <t>7,1,38,0,2,1</t>
+  </si>
+  <si>
+    <t>11,0,19,11,1,1</t>
+  </si>
+  <si>
+    <t>3,0,6,1,0,0</t>
+  </si>
+  <si>
+    <t>41,23,18,39,2,0,9,5,0,0,18,0</t>
+  </si>
+  <si>
+    <t>53,15,38,43,5,0,5,4,2,0,9,0</t>
+  </si>
+  <si>
+    <t>39,22,17,28,2,0,9,0,6,0,16,0</t>
+  </si>
+  <si>
+    <t>12,3,9,9,1,0,2,0,2,0,1</t>
   </si>
 </sst>
 </file>
@@ -921,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C339AD-142A-1A41-A84D-50BBD9E5CBA0}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -935,26 +1133,29 @@
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="21.5" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
     <col min="11" max="11" width="20.6640625" customWidth="1"/>
     <col min="12" max="12" width="20.1640625" customWidth="1"/>
     <col min="13" max="13" width="23.33203125" customWidth="1"/>
     <col min="14" max="14" width="20.5" customWidth="1"/>
-    <col min="15" max="15" width="16.1640625" customWidth="1"/>
-    <col min="16" max="16" width="12.5" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" customWidth="1"/>
-    <col min="18" max="18" width="13.5" customWidth="1"/>
-    <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="24.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" customWidth="1"/>
+    <col min="16" max="16" width="15.5" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="14.5" customWidth="1"/>
+    <col min="20" max="20" width="24.83203125" customWidth="1"/>
     <col min="21" max="21" width="26.1640625" customWidth="1"/>
     <col min="22" max="22" width="29.5" customWidth="1"/>
     <col min="23" max="23" width="26.1640625" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" customWidth="1"/>
+    <col min="25" max="25" width="7.1640625" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,7 +1199,7 @@
         <v>58</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>94</v>
@@ -1025,10 +1226,16 @@
         <v>77</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -1057,7 +1264,7 @@
       <c r="N2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1081,7 +1288,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1105,7 +1312,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1129,7 +1336,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1153,7 +1360,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1198,7 +1405,7 @@
       </c>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
@@ -1254,7 +1461,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>106</v>
       </c>
@@ -1322,7 +1529,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>132</v>
       </c>
@@ -1366,7 +1573,7 @@
         <v>138</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>139</v>
@@ -1384,16 +1591,264 @@
         <v>144</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X10">
         <v>75</v>
+      </c>
+      <c r="Y10">
+        <v>1340</v>
+      </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="X11">
+        <v>64</v>
+      </c>
+      <c r="Y11">
+        <v>1336</v>
+      </c>
+      <c r="Z11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="X12">
+        <v>82</v>
+      </c>
+      <c r="Y12">
+        <v>1332</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="X13">
+        <v>50</v>
+      </c>
+      <c r="Y13">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/CatanDB.xlsx
+++ b/CatanDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklasbille/projects/CatanAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340ED758-3635-DE48-81A2-5008398D318F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A136327E-92D1-DE44-8CB9-48AE779BCAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="500" windowWidth="10000" windowHeight="17500" xr2:uid="{36430CA0-0917-3746-988E-C7102F59D220}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="17500" xr2:uid="{36430CA0-0917-3746-988E-C7102F59D220}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,23 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>Map string</t>
   </si>
   <si>
-    <t>45-49, 5-9</t>
-  </si>
-  <si>
-    <t>8-4,17-23</t>
-  </si>
-  <si>
-    <t>39-43,35-30</t>
-  </si>
-  <si>
-    <t>28-22,25-19</t>
-  </si>
-  <si>
     <t>PlayerOnePlacement</t>
   </si>
   <si>
@@ -66,123 +54,12 @@
     <t>PlayerFourPlacement</t>
   </si>
   <si>
-    <t>23-18, 40-45</t>
-  </si>
-  <si>
-    <t>22-28, 39-44</t>
-  </si>
-  <si>
-    <t>41-46, 13-8</t>
-  </si>
-  <si>
-    <t>12-7, 33-27</t>
-  </si>
-  <si>
-    <t>29-34, 7-3</t>
-  </si>
-  <si>
-    <t>22-28, 44-48</t>
-  </si>
-  <si>
-    <t>31-37, 45-41</t>
-  </si>
-  <si>
-    <t>8-13, 30-36</t>
-  </si>
-  <si>
-    <t>31-37, 28-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39-43, 5-2, </t>
-  </si>
-  <si>
-    <t>14-19, 18-13</t>
-  </si>
-  <si>
-    <t>41-45, 8-4</t>
-  </si>
-  <si>
-    <t>sh,xx, br,wh,wo,x,or,xx,xx</t>
-  </si>
-  <si>
-    <t>wh09, br12,or11,or10,or05,wh06,de00,sh08,wo04,wh11,wo03,br04,sh03,wo09,br10,wo08,sh06,wh02,sh05</t>
-  </si>
-  <si>
-    <t>tr,xx,wo,xx,or,sh,xx,wh,br</t>
-  </si>
-  <si>
-    <t>br08,sh03,wh06,wh10,wh04,de00,or02,or09,sh05,sh11,wo09,br05,wh12,wo06,or03,sh10,br11,wo4,wo8</t>
-  </si>
-  <si>
-    <t>xx,wh,wo,xx,br,or,sh,xx,xx</t>
-  </si>
-  <si>
-    <t>or,wh,sh,xx,wo,xx,xx,xx,br</t>
-  </si>
-  <si>
-    <t>wh11,br12,or09,de00,sh06,sh05,wo10,br04,wo03,wh11,wo04,or08,wh08,sh10,sh9,br03,wh05,wo02,or06</t>
-  </si>
-  <si>
-    <t>34-39,14-9</t>
-  </si>
-  <si>
-    <t>18-23, 31-36</t>
-  </si>
-  <si>
-    <t>12-7, 43-47</t>
-  </si>
-  <si>
-    <t>or,wh,xx,xx,br,sh,xx,xx,wo</t>
-  </si>
-  <si>
     <t>Port string</t>
   </si>
   <si>
-    <t>wo09,wh12,br11,br10,br05,sh06,or04,or08,sh04,wh11,wo03,sh08,wh03,wh09,de00,sh10,wo06,wo02,or05</t>
-  </si>
-  <si>
-    <t>wh9,or10,sh8,br12,sh5,de00,or3,sh11,wh06,wo11,or04,wo06,wh04,wo03,wo09,sh02,br08,sh10,br05</t>
-  </si>
-  <si>
-    <t>49-45,9-14</t>
-  </si>
-  <si>
-    <t>8-4,24-24-19</t>
-  </si>
-  <si>
-    <t>44-48,28-34</t>
-  </si>
-  <si>
-    <t>17-22, 47-43</t>
-  </si>
-  <si>
-    <t>wo,or,br,xx,xx,sh,xx,wh</t>
-  </si>
-  <si>
-    <t>wo5br10wh8or2sh9sh3sh4wh6sh4or11wh6wo11wo3wh5de0br12or8br10wo9</t>
-  </si>
-  <si>
     <t>Player points</t>
   </si>
   <si>
-    <t>7,10,7,9</t>
-  </si>
-  <si>
-    <t>6,6,4,10</t>
-  </si>
-  <si>
-    <t>8,5,10,7</t>
-  </si>
-  <si>
-    <t>7,4,6,10</t>
-  </si>
-  <si>
-    <t>7,6,9,19</t>
-  </si>
-  <si>
-    <t>7,10,6,5</t>
-  </si>
-  <si>
     <t>PointsFromSettlements</t>
   </si>
   <si>
@@ -192,15 +69,6 @@
     <t>Points from VP cards</t>
   </si>
   <si>
-    <t>4,0,3,4</t>
-  </si>
-  <si>
-    <t>0,6,2,2</t>
-  </si>
-  <si>
-    <t>1,2,0,0</t>
-  </si>
-  <si>
     <t>PlayerWithLargestArmy</t>
   </si>
   <si>
@@ -210,15 +78,9 @@
     <t>DiceStats</t>
   </si>
   <si>
-    <t>2,5,5,8,10,24,14,11,3,1,3</t>
-  </si>
-  <si>
     <t>ResourceCardsDrawn</t>
   </si>
   <si>
-    <t>50,24,57,98,55</t>
-  </si>
-  <si>
     <t>DiceStats ordering goes from 2-12</t>
   </si>
   <si>
@@ -228,42 +90,6 @@
     <t>DevCardStats goes from knight, vp, mono, rb, yop</t>
   </si>
   <si>
-    <t>9-4,22-16</t>
-  </si>
-  <si>
-    <t>30-24,41-46</t>
-  </si>
-  <si>
-    <t>31-36,29-34</t>
-  </si>
-  <si>
-    <t>40-45, 20-25</t>
-  </si>
-  <si>
-    <t>5,10,6,5</t>
-  </si>
-  <si>
-    <t>5,2,2,3</t>
-  </si>
-  <si>
-    <t>0,6,4,2</t>
-  </si>
-  <si>
-    <t>0,0,0,0</t>
-  </si>
-  <si>
-    <t>3,3,2,6,7,9,6,7,3,2,2</t>
-  </si>
-  <si>
-    <t>45,32,38,35,36</t>
-  </si>
-  <si>
-    <t>sh,br,xx,xx,or,xx,wo,xx,wh</t>
-  </si>
-  <si>
-    <t>de0wh8wo5wo4wh3wh10sh2or11wo6sh11or9br6br12wh5or4br3sh9sh10wo8</t>
-  </si>
-  <si>
     <t>ResourceStatsP1</t>
   </si>
   <si>
@@ -276,48 +102,6 @@
     <t>ResourceStatsP3</t>
   </si>
   <si>
-    <t>42,15,27,34,3,0,5,4,1,0,10,0</t>
-  </si>
-  <si>
-    <t>66,25,41,56,3,0,7,10,7,0,8,0</t>
-  </si>
-  <si>
-    <t>50,23,27,37,2,0,11,0,1,0,22,0</t>
-  </si>
-  <si>
-    <t>49,19,30,38,3,0,8,5,2,0,12,0</t>
-  </si>
-  <si>
-    <t>31-25,39-34</t>
-  </si>
-  <si>
-    <t>41-45,35-30</t>
-  </si>
-  <si>
-    <t>14-19, 16-22</t>
-  </si>
-  <si>
-    <t>12-8, 24-18</t>
-  </si>
-  <si>
-    <t>5,4,4,10</t>
-  </si>
-  <si>
-    <t>3,1,2,5</t>
-  </si>
-  <si>
-    <t>2,2,2,2</t>
-  </si>
-  <si>
-    <t>0,1,0,1</t>
-  </si>
-  <si>
-    <t>1,5,6,8,6,6,15,5,2,1,1</t>
-  </si>
-  <si>
-    <t>50,28,55,35,32</t>
-  </si>
-  <si>
     <t>ActivityStatsP2</t>
   </si>
   <si>
@@ -330,36 +114,6 @@
     <t>ActivityStatsP3</t>
   </si>
   <si>
-    <t>11,2,23,1,2,2</t>
-  </si>
-  <si>
-    <t>0,0,28,1,7,4</t>
-  </si>
-  <si>
-    <t>9,2,15,1,0,0</t>
-  </si>
-  <si>
-    <t>12,2,42,1,1,0</t>
-  </si>
-  <si>
-    <t>51,27,24,39,2,0,10,0,1,5,21,0</t>
-  </si>
-  <si>
-    <t>54,21,33,34,3,11,6,0,3,0,18,0</t>
-  </si>
-  <si>
-    <t>37,21,16,29,1,0,7,4,1,4,12,0</t>
-  </si>
-  <si>
-    <t>81,40,41,66,3,0,12,4,4,2,30,0</t>
-  </si>
-  <si>
-    <t>xx,wh,xx,xx,xx,or,sh,wo,br</t>
-  </si>
-  <si>
-    <t>wh9wh12br11wo10sh5sh6wh4sh8de0sh11or3wo8br3br4or9or10wo6wh2wo5</t>
-  </si>
-  <si>
     <t>ResourceStats ordering are:</t>
   </si>
   <si>
@@ -621,9 +375,6 @@
     <t>OwnPlacement</t>
   </si>
   <si>
-    <t>Blue starts</t>
-  </si>
-  <si>
     <t>31-37,16-21</t>
   </si>
   <si>
@@ -685,6 +436,132 @@
   </si>
   <si>
     <t>12,3,9,9,1,0,2,0,2,0,1</t>
+  </si>
+  <si>
+    <t>45-49, 24-18</t>
+  </si>
+  <si>
+    <t>14-9,36-31</t>
+  </si>
+  <si>
+    <t>39-44,12-8</t>
+  </si>
+  <si>
+    <t>13-8,48-51</t>
+  </si>
+  <si>
+    <t>brwoxxwhxxxxorxxsh</t>
+  </si>
+  <si>
+    <t>wo9br10sh8wo12wh6or5wh3wh11de0sh11wo4sh6wh4br3br9or2wo8or10sh5</t>
+  </si>
+  <si>
+    <t>7,5,8,10</t>
+  </si>
+  <si>
+    <t>2,5,2,1</t>
+  </si>
+  <si>
+    <t>4,0,4,6</t>
+  </si>
+  <si>
+    <t>1,0,0,3</t>
+  </si>
+  <si>
+    <t>3,4,5,5,7,6,12,5,8,3,2</t>
+  </si>
+  <si>
+    <t>5,4,0,1,0</t>
+  </si>
+  <si>
+    <t>6,1,34,5,2,1</t>
+  </si>
+  <si>
+    <t>16,1,26,3,0,0</t>
+  </si>
+  <si>
+    <t>0,0,37,2,3,2</t>
+  </si>
+  <si>
+    <t>2,0,44,5,5,2</t>
+  </si>
+  <si>
+    <t>62,22,40,41,4,0,7,0,2,0,20,0</t>
+  </si>
+  <si>
+    <t>52,24,28,46,2,0,4,8,3,0,13,0</t>
+  </si>
+  <si>
+    <t>68,24,44,62,2,0,4,4,4,0,16,0</t>
+  </si>
+  <si>
+    <t>70,20,50,60,3,0,7,0,2,0,18,0</t>
+  </si>
+  <si>
+    <t>57,40,48,54,32</t>
+  </si>
+  <si>
+    <t>29-23,13-9</t>
+  </si>
+  <si>
+    <t>28-33,12-7</t>
+  </si>
+  <si>
+    <t>19-25,40-45</t>
+  </si>
+  <si>
+    <t>39-34,16-11</t>
+  </si>
+  <si>
+    <t>br6wh2wh5br3sh4wo9wh10sh8wh5sh11wo3br8wo10or6de0sh4or9or12wo11</t>
+  </si>
+  <si>
+    <t>xxwhxxxxwoshbrxxor</t>
+  </si>
+  <si>
+    <t>7,8,7,10</t>
+  </si>
+  <si>
+    <t>2,4,3,1</t>
+  </si>
+  <si>
+    <t>2,2,4,6</t>
+  </si>
+  <si>
+    <t>3,0,0,1</t>
+  </si>
+  <si>
+    <t>2,3,10,9,12,13,10,8,4,6,3</t>
+  </si>
+  <si>
+    <t>33,40,60,54,73</t>
+  </si>
+  <si>
+    <t>6,4,2,1,2</t>
+  </si>
+  <si>
+    <t>5,0,39,5,8,4</t>
+  </si>
+  <si>
+    <t>12,4,33,10,0,0</t>
+  </si>
+  <si>
+    <t>3,2,32,6,0,0</t>
+  </si>
+  <si>
+    <t>16,1,46,15,7,5</t>
+  </si>
+  <si>
+    <t>73,30,43,50,6,3,14,0,7,0,23,0</t>
+  </si>
+  <si>
+    <t>63,25,38,53,3,0,7,8,3,0,14,0</t>
+  </si>
+  <si>
+    <t>69,37,32,56,0,0,13,4,2,1,30,0</t>
+  </si>
+  <si>
+    <t>81,35,46,62,10,0,9,8,7,0,20,0</t>
   </si>
 </sst>
 </file>
@@ -1119,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C339AD-142A-1A41-A84D-50BBD9E5CBA0}">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1160,696 +1037,593 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2">
+        <v>75</v>
+      </c>
+      <c r="Y2">
+        <v>1340</v>
+      </c>
+      <c r="Z2">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>69</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X3">
+        <v>64</v>
+      </c>
+      <c r="Y3">
+        <v>1336</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>93</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="X4">
+        <v>82</v>
+      </c>
+      <c r="Y4">
+        <v>1332</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>117</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="X5">
+        <v>50</v>
+      </c>
+      <c r="Y5">
+        <v>1361</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>136</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="X6">
+        <v>68</v>
+      </c>
+      <c r="Y6">
+        <v>1358</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>159</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
         <v>2</v>
       </c>
-      <c r="L7">
+      <c r="M7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="X7">
+        <v>88</v>
+      </c>
+      <c r="Y7">
+        <v>1354</v>
+      </c>
+      <c r="Z7">
         <v>1</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>81</v>
+      <c r="A8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="Y8">
+        <v>1382</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K10">
-        <v>4</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="X10">
-        <v>75</v>
-      </c>
-      <c r="Y10">
-        <v>1340</v>
-      </c>
-      <c r="Z10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K11">
-        <v>4</v>
-      </c>
-      <c r="L11">
-        <v>4</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="X11">
-        <v>64</v>
-      </c>
-      <c r="Y11">
-        <v>1336</v>
-      </c>
-      <c r="Z11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="X12">
-        <v>82</v>
-      </c>
-      <c r="Y12">
-        <v>1332</v>
-      </c>
-      <c r="Z12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="X13">
-        <v>50</v>
-      </c>
-      <c r="Y13">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C14" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1872,117 +1646,117 @@
   <sheetData>
     <row r="3" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D5" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>122</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/CatanDB.xlsx
+++ b/CatanDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklasbille/projects/CatanAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A136327E-92D1-DE44-8CB9-48AE779BCAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB43CF70-B095-B949-A38D-0495D55BF80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="17500" xr2:uid="{36430CA0-0917-3746-988E-C7102F59D220}"/>
+    <workbookView xWindow="18800" yWindow="500" windowWidth="10000" windowHeight="17500" xr2:uid="{36430CA0-0917-3746-988E-C7102F59D220}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>Map string</t>
   </si>
@@ -562,6 +562,135 @@
   </si>
   <si>
     <t>81,35,46,62,10,0,9,8,7,0,20,0</t>
+  </si>
+  <si>
+    <t>49-52,34-28</t>
+  </si>
+  <si>
+    <t>40-45,17-22</t>
+  </si>
+  <si>
+    <t>9-14,48-51</t>
+  </si>
+  <si>
+    <t>8-13,10-14</t>
+  </si>
+  <si>
+    <t>or5or8br4wh2wh10or3wo11wh6br9sh11sh6de0sh3wo4br5sh12wh8wo10wo9</t>
+  </si>
+  <si>
+    <t>xxwhxxbrorwoshxxxx</t>
+  </si>
+  <si>
+    <t>8,8,6,10</t>
+  </si>
+  <si>
+    <t>3,0,4,4</t>
+  </si>
+  <si>
+    <t>2,8,2,2</t>
+  </si>
+  <si>
+    <t>1,0,0,2</t>
+  </si>
+  <si>
+    <t>2,4,1,10,12,13,6,7,11,3,2</t>
+  </si>
+  <si>
+    <t>60,45,24,57,37</t>
+  </si>
+  <si>
+    <t>6,3,0,0,0</t>
+  </si>
+  <si>
+    <t>6,1,34,8,5,4</t>
+  </si>
+  <si>
+    <t>10,3,39,5,1,1</t>
+  </si>
+  <si>
+    <t>59,21,38,45,8,0,6,0,7,0,14,0</t>
+  </si>
+  <si>
+    <t>62,21,41,42,6,0,14,0,5,0,16,0</t>
+  </si>
+  <si>
+    <t>66,35,31,55,1,0,10,8,3,0,24,0</t>
+  </si>
+  <si>
+    <t>12,4,31,9,0,0</t>
+  </si>
+  <si>
+    <t>7,1,48,3,3,1</t>
+  </si>
+  <si>
+    <t>72,27,45,53,4,0,15,0,4,0,23,0</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>46-41,40-35</t>
+  </si>
+  <si>
+    <t>12-7,31-25</t>
+  </si>
+  <si>
+    <t>14-9, 29-34</t>
+  </si>
+  <si>
+    <t>wh6or2wo5sh3wo9br10or8de0sh4or11sh3wh4br8wh5wo6br11sh10wo9wh12</t>
+  </si>
+  <si>
+    <t>xxxxxxbrwoshorxxwh</t>
+  </si>
+  <si>
+    <t>39-44,30-24</t>
+  </si>
+  <si>
+    <t>11,7,7,4</t>
+  </si>
+  <si>
+    <t>5,1,4,3</t>
+  </si>
+  <si>
+    <t>2,6,2,0</t>
+  </si>
+  <si>
+    <t>0,0,1,1</t>
+  </si>
+  <si>
+    <t>4,5,2,6,9,14,12,4,8,3,2</t>
+  </si>
+  <si>
+    <t>60,48,44,53,36</t>
+  </si>
+  <si>
+    <t>5,2,1,1,0</t>
+  </si>
+  <si>
+    <t>9,3,49,3,4,4</t>
+  </si>
+  <si>
+    <t>18,2,36,7,1,1</t>
+  </si>
+  <si>
+    <t>15,5,32,1,3,2</t>
+  </si>
+  <si>
+    <t>1,1,17,3,1,0</t>
+  </si>
+  <si>
+    <t>85,50,35,64,7,0,14,12,8,9,21,0</t>
+  </si>
+  <si>
+    <t>105,49,56,79,5,9,12,8,9,0,32,0</t>
+  </si>
+  <si>
+    <t>54,19,35,41,3,0,10,8,0,0,11,0,0</t>
+  </si>
+  <si>
+    <t>37,18,19,26,3,0,8,0,1,0,17,0</t>
   </si>
 </sst>
 </file>
@@ -998,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C339AD-142A-1A41-A84D-50BBD9E5CBA0}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1593,34 +1722,170 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="X8">
+        <v>80</v>
+      </c>
       <c r="Y8">
         <v>1382</v>
       </c>
+      <c r="Z8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="X9">
+        <v>77</v>
+      </c>
+      <c r="Y9">
+        <v>1378</v>
+      </c>
+      <c r="Z9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>

--- a/CatanDB.xlsx
+++ b/CatanDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklasbille/projects/CatanAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB43CF70-B095-B949-A38D-0495D55BF80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAF049D-1D51-CC49-A37C-B8073D66F783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18800" yWindow="500" windowWidth="10000" windowHeight="17500" xr2:uid="{36430CA0-0917-3746-988E-C7102F59D220}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="321">
   <si>
     <t>Map string</t>
   </si>
@@ -294,9 +294,6 @@
     <t>5,1,36,2,4,3</t>
   </si>
   <si>
-    <t>52,15,37,40,2,6,4,4,5,0,6</t>
-  </si>
-  <si>
     <t>34,11,23,26,3,0,5,0,0,3,8,0</t>
   </si>
   <si>
@@ -627,9 +624,6 @@
     <t>72,27,45,53,4,0,15,0,4,0,23,0</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>46-41,40-35</t>
   </si>
   <si>
@@ -691,6 +685,321 @@
   </si>
   <si>
     <t>37,18,19,26,3,0,8,0,1,0,17,0</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>39-43,19-24</t>
+  </si>
+  <si>
+    <t>28-34,18-24</t>
+  </si>
+  <si>
+    <t>31-37,9-14</t>
+  </si>
+  <si>
+    <t>12-7,30-35</t>
+  </si>
+  <si>
+    <t>wo5sh2wh6br10br9wh4br3wo8sh3wo11or5or8or4wh6de0wh10sh11sh12wo9</t>
+  </si>
+  <si>
+    <t>whxxorwoxxxxxxshbr</t>
+  </si>
+  <si>
+    <t>6,9,6,10</t>
+  </si>
+  <si>
+    <t>4,0,4,0</t>
+  </si>
+  <si>
+    <t>2,6,0,8</t>
+  </si>
+  <si>
+    <t>0,1,0,2</t>
+  </si>
+  <si>
+    <t>2,2,2,11,13,9,7,5,9,3,1</t>
+  </si>
+  <si>
+    <t>40,35,28,100,73</t>
+  </si>
+  <si>
+    <t>10,3,2,2,1</t>
+  </si>
+  <si>
+    <t>11,4,33,3,0,0</t>
+  </si>
+  <si>
+    <t>4,2,57,5,12,7</t>
+  </si>
+  <si>
+    <t>20,1,22,3,0,0</t>
+  </si>
+  <si>
+    <t>3,1,50,3,6,4</t>
+  </si>
+  <si>
+    <t>77,36,41,67,1,0,9,10,4,7,15,0</t>
+  </si>
+  <si>
+    <t>52,15,37,40,2,6,4,4,5,0,6,0</t>
+  </si>
+  <si>
+    <t>121,57,64,85,7,13,16,0,7,6,44,0</t>
+  </si>
+  <si>
+    <t>94,45,49,57,6,15,16,0,3,5,37,0</t>
+  </si>
+  <si>
+    <t>31-25,14-9</t>
+  </si>
+  <si>
+    <t>46-41,30-35</t>
+  </si>
+  <si>
+    <t>44-48,16-22</t>
+  </si>
+  <si>
+    <t>12-8,5-9</t>
+  </si>
+  <si>
+    <t>wo8or4br11br10wo3wo6wo12br5de0or11wh5wo9wh2wh9sh4sh10or6sh3sh8</t>
+  </si>
+  <si>
+    <t>xxwoxxxxshxxwhorbr</t>
+  </si>
+  <si>
+    <t>7,7,10,6</t>
+  </si>
+  <si>
+    <t>5,1,1,4</t>
+  </si>
+  <si>
+    <t>2,6,6,0</t>
+  </si>
+  <si>
+    <t>3,2,5,2,7,6,10,9,6,3,2</t>
+  </si>
+  <si>
+    <t>50,35,61,37,39</t>
+  </si>
+  <si>
+    <t>4,1,0,0,0</t>
+  </si>
+  <si>
+    <t>14,7,33,9,0,0</t>
+  </si>
+  <si>
+    <t>18,2,31,10,0,0</t>
+  </si>
+  <si>
+    <t>4,0,41,0,4,3</t>
+  </si>
+  <si>
+    <t>0,0,21,2,1,1</t>
+  </si>
+  <si>
+    <t>62,30,32,46,4,0,12,9,3,0,18,0</t>
+  </si>
+  <si>
+    <t>53,20,33,42,0,0,11,0,3,0,17,0</t>
+  </si>
+  <si>
+    <t>83,44,39,56,3,0,24,0,2,0,42,0</t>
+  </si>
+  <si>
+    <t>43,21,22,35,2,0,6,0,1,0,20,0</t>
+  </si>
+  <si>
+    <t>22-28,31-25</t>
+  </si>
+  <si>
+    <t>39-43,18-24</t>
+  </si>
+  <si>
+    <t>12-8, 19-14</t>
+  </si>
+  <si>
+    <t>41-36,29-35</t>
+  </si>
+  <si>
+    <t>or9wo12de0wh10sh5br6or11br8sh4wo11wo3sh4sh3wh9wh10or8wo6wh2br5</t>
+  </si>
+  <si>
+    <t>brorxxxxshwoxxxxwh</t>
+  </si>
+  <si>
+    <t>5,5,10,6</t>
+  </si>
+  <si>
+    <t>4,3,5,2</t>
+  </si>
+  <si>
+    <t>0,2,2,4</t>
+  </si>
+  <si>
+    <t>1,0,1,0</t>
+  </si>
+  <si>
+    <t>3,3,7,4,13,8,6,4,5,4,2</t>
+  </si>
+  <si>
+    <t>60,56,47,49,35</t>
+  </si>
+  <si>
+    <t>3,2,2,1,1</t>
+  </si>
+  <si>
+    <t>16,2,32,0,4,3</t>
+  </si>
+  <si>
+    <t>0,0,24,0,1,1</t>
+  </si>
+  <si>
+    <t>1,0,47,5,2,1</t>
+  </si>
+  <si>
+    <t>15,0,32,2,2,2</t>
+  </si>
+  <si>
+    <t>70,33,37,47,3,13,7,8,2,0,23,0</t>
+  </si>
+  <si>
+    <t>50,25,25,43,2,0,5,0,0,5,20,0</t>
+  </si>
+  <si>
+    <t>83,38,45,69,2,2,10,4,7,2,25,0</t>
+  </si>
+  <si>
+    <t>61,27,34,51,4,0,6,0,2,6,19,0</t>
+  </si>
+  <si>
+    <t>35-29,9-14</t>
+  </si>
+  <si>
+    <t>8-4,44-48</t>
+  </si>
+  <si>
+    <t>25-20,33-38</t>
+  </si>
+  <si>
+    <t>45-49,24-30</t>
+  </si>
+  <si>
+    <t>sh5wh10sh8br2wo9br3wh4wh6de0or11or6br11wo3wo4or5wh12sh8sh10wo9</t>
+  </si>
+  <si>
+    <t>shorwhxxbrwoxxxxxx</t>
+  </si>
+  <si>
+    <t>6,4,5,10</t>
+  </si>
+  <si>
+    <t>4,0,3,2</t>
+  </si>
+  <si>
+    <t>2,4,2,4</t>
+  </si>
+  <si>
+    <t>0,0,0,0</t>
+  </si>
+  <si>
+    <t>1,4,3,10,5,11,7,5,5,4,2</t>
+  </si>
+  <si>
+    <t>28,24,52,38,42</t>
+  </si>
+  <si>
+    <t>3,0,0,0,2</t>
+  </si>
+  <si>
+    <t>10,1,24,4,0,0</t>
+  </si>
+  <si>
+    <t>0,0,12,0,0,0</t>
+  </si>
+  <si>
+    <t>38,3,24,9,1,1</t>
+  </si>
+  <si>
+    <t>12,2,40,6,4,4</t>
+  </si>
+  <si>
+    <t>62,18,40,44,6,2,6,0,4,0,14,0</t>
+  </si>
+  <si>
+    <t>36,17,19,27,2,0,7,5,3,0,9,0</t>
+  </si>
+  <si>
+    <t>47,21,26,37,2,2,6,4,0,0,17,0</t>
+  </si>
+  <si>
+    <t>58,18,40,44,6,2,6,0,4,0,14,0</t>
+  </si>
+  <si>
+    <t>14-9,22-28,</t>
+  </si>
+  <si>
+    <t>12-8,29-34</t>
+  </si>
+  <si>
+    <t>40-35,18-24</t>
+  </si>
+  <si>
+    <t>25-20,30-36</t>
+  </si>
+  <si>
+    <t>or5sh2sh6wh8wo10wo9wh3br4wh3wh11wo4wo8or11sh6br5de0sh12br9or10</t>
+  </si>
+  <si>
+    <t>woshxxxxxxwhxxorbr</t>
+  </si>
+  <si>
+    <t>4,10,9,6</t>
+  </si>
+  <si>
+    <t>4,0,3,4</t>
+  </si>
+  <si>
+    <t>0,6,4,2</t>
+  </si>
+  <si>
+    <t>0,2,0,0</t>
+  </si>
+  <si>
+    <t>1,7,5,10,12,15,6,6,5,5,2</t>
+  </si>
+  <si>
+    <t>45,48,49,73,42</t>
+  </si>
+  <si>
+    <t>7,2,2,1,1</t>
+  </si>
+  <si>
+    <t>0,0,22,4,0,0</t>
+  </si>
+  <si>
+    <t>23,2,39,4,6,4</t>
+  </si>
+  <si>
+    <t>9,3,45,9,1,1</t>
+  </si>
+  <si>
+    <t>2,0,41,7,6,4</t>
+  </si>
+  <si>
+    <t>51,27,24,39,4,0,8,4,1,10,12,0</t>
+  </si>
+  <si>
+    <t>72,33,39,57,7,2,6,12,1,3,17,0</t>
+  </si>
+  <si>
+    <t>87,42,45,62,5,11,9,13,7,0,22,0</t>
+  </si>
+  <si>
+    <t>87,43,44,63,3,7,14,0,10,5,28,0</t>
   </si>
 </sst>
 </file>
@@ -1127,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C339AD-142A-1A41-A84D-50BBD9E5CBA0}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1238,7 +1547,7 @@
         <v>73</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -1303,7 +1612,7 @@
         <v>62</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>61</v>
@@ -1380,16 +1689,16 @@
         <v>84</v>
       </c>
       <c r="T3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="V3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="X3">
         <v>64</v>
@@ -1403,34 +1712,34 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -1439,37 +1748,37 @@
         <v>2</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="X4">
         <v>82</v>
@@ -1483,34 +1792,34 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1519,37 +1828,37 @@
         <v>2</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="X5">
         <v>50</v>
@@ -1563,34 +1872,34 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1599,37 +1908,37 @@
         <v>4</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="X6">
         <v>68</v>
@@ -1643,34 +1952,34 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -1679,37 +1988,37 @@
         <v>2</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="X7">
         <v>88</v>
@@ -1723,34 +2032,34 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1759,37 +2068,37 @@
         <v>4</v>
       </c>
       <c r="M8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="S8" s="1" t="s">
+      <c r="U8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="W8" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="X8">
         <v>80</v>
@@ -1803,34 +2112,34 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1839,37 +2148,37 @@
         <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="T9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="T9" s="1" t="s">
+      <c r="V9" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="W9" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="X9">
         <v>77</v>
@@ -1882,10 +2191,412 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="X10">
+        <v>72</v>
+      </c>
+      <c r="Y10">
+        <v>1374</v>
+      </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="X11">
+        <v>63</v>
+      </c>
+      <c r="Y11">
+        <v>1366</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="X12">
+        <v>67</v>
+      </c>
+      <c r="Y12">
+        <v>1393</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="X13">
+        <v>64</v>
+      </c>
+      <c r="Y13">
+        <v>1387</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="X14">
+        <v>82</v>
+      </c>
+      <c r="Y14">
+        <v>1384</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y15">
+        <v>1411</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
@@ -1901,7 +2612,7 @@
   <dimension ref="D3:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D7:D18"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/CatanDB.xlsx
+++ b/CatanDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklasbille/projects/CatanAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAF049D-1D51-CC49-A37C-B8073D66F783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A469E0-4F97-5A44-B55C-671D3649CA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18800" yWindow="500" windowWidth="10000" windowHeight="17500" xr2:uid="{36430CA0-0917-3746-988E-C7102F59D220}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="403">
   <si>
     <t>Map string</t>
   </si>
@@ -687,319 +687,565 @@
     <t>37,18,19,26,3,0,8,0,1,0,17,0</t>
   </si>
   <si>
+    <t>39-43,19-24</t>
+  </si>
+  <si>
+    <t>28-34,18-24</t>
+  </si>
+  <si>
+    <t>31-37,9-14</t>
+  </si>
+  <si>
+    <t>12-7,30-35</t>
+  </si>
+  <si>
+    <t>wo5sh2wh6br10br9wh4br3wo8sh3wo11or5or8or4wh6de0wh10sh11sh12wo9</t>
+  </si>
+  <si>
+    <t>whxxorwoxxxxxxshbr</t>
+  </si>
+  <si>
+    <t>6,9,6,10</t>
+  </si>
+  <si>
+    <t>4,0,4,0</t>
+  </si>
+  <si>
+    <t>2,6,0,8</t>
+  </si>
+  <si>
+    <t>0,1,0,2</t>
+  </si>
+  <si>
+    <t>2,2,2,11,13,9,7,5,9,3,1</t>
+  </si>
+  <si>
+    <t>40,35,28,100,73</t>
+  </si>
+  <si>
+    <t>10,3,2,2,1</t>
+  </si>
+  <si>
+    <t>11,4,33,3,0,0</t>
+  </si>
+  <si>
+    <t>4,2,57,5,12,7</t>
+  </si>
+  <si>
+    <t>20,1,22,3,0,0</t>
+  </si>
+  <si>
+    <t>3,1,50,3,6,4</t>
+  </si>
+  <si>
+    <t>77,36,41,67,1,0,9,10,4,7,15,0</t>
+  </si>
+  <si>
+    <t>52,15,37,40,2,6,4,4,5,0,6,0</t>
+  </si>
+  <si>
+    <t>121,57,64,85,7,13,16,0,7,6,44,0</t>
+  </si>
+  <si>
+    <t>94,45,49,57,6,15,16,0,3,5,37,0</t>
+  </si>
+  <si>
+    <t>31-25,14-9</t>
+  </si>
+  <si>
+    <t>46-41,30-35</t>
+  </si>
+  <si>
+    <t>44-48,16-22</t>
+  </si>
+  <si>
+    <t>12-8,5-9</t>
+  </si>
+  <si>
+    <t>wo8or4br11br10wo3wo6wo12br5de0or11wh5wo9wh2wh9sh4sh10or6sh3sh8</t>
+  </si>
+  <si>
+    <t>xxwoxxxxshxxwhorbr</t>
+  </si>
+  <si>
+    <t>7,7,10,6</t>
+  </si>
+  <si>
+    <t>5,1,1,4</t>
+  </si>
+  <si>
+    <t>2,6,6,0</t>
+  </si>
+  <si>
+    <t>3,2,5,2,7,6,10,9,6,3,2</t>
+  </si>
+  <si>
+    <t>50,35,61,37,39</t>
+  </si>
+  <si>
+    <t>4,1,0,0,0</t>
+  </si>
+  <si>
+    <t>14,7,33,9,0,0</t>
+  </si>
+  <si>
+    <t>18,2,31,10,0,0</t>
+  </si>
+  <si>
+    <t>4,0,41,0,4,3</t>
+  </si>
+  <si>
+    <t>0,0,21,2,1,1</t>
+  </si>
+  <si>
+    <t>62,30,32,46,4,0,12,9,3,0,18,0</t>
+  </si>
+  <si>
+    <t>53,20,33,42,0,0,11,0,3,0,17,0</t>
+  </si>
+  <si>
+    <t>83,44,39,56,3,0,24,0,2,0,42,0</t>
+  </si>
+  <si>
+    <t>43,21,22,35,2,0,6,0,1,0,20,0</t>
+  </si>
+  <si>
+    <t>22-28,31-25</t>
+  </si>
+  <si>
+    <t>39-43,18-24</t>
+  </si>
+  <si>
+    <t>12-8, 19-14</t>
+  </si>
+  <si>
+    <t>41-36,29-35</t>
+  </si>
+  <si>
+    <t>or9wo12de0wh10sh5br6or11br8sh4wo11wo3sh4sh3wh9wh10or8wo6wh2br5</t>
+  </si>
+  <si>
+    <t>brorxxxxshwoxxxxwh</t>
+  </si>
+  <si>
+    <t>5,5,10,6</t>
+  </si>
+  <si>
+    <t>4,3,5,2</t>
+  </si>
+  <si>
+    <t>0,2,2,4</t>
+  </si>
+  <si>
+    <t>1,0,1,0</t>
+  </si>
+  <si>
+    <t>3,3,7,4,13,8,6,4,5,4,2</t>
+  </si>
+  <si>
+    <t>60,56,47,49,35</t>
+  </si>
+  <si>
+    <t>3,2,2,1,1</t>
+  </si>
+  <si>
+    <t>16,2,32,0,4,3</t>
+  </si>
+  <si>
+    <t>0,0,24,0,1,1</t>
+  </si>
+  <si>
+    <t>1,0,47,5,2,1</t>
+  </si>
+  <si>
+    <t>15,0,32,2,2,2</t>
+  </si>
+  <si>
+    <t>70,33,37,47,3,13,7,8,2,0,23,0</t>
+  </si>
+  <si>
+    <t>50,25,25,43,2,0,5,0,0,5,20,0</t>
+  </si>
+  <si>
+    <t>83,38,45,69,2,2,10,4,7,2,25,0</t>
+  </si>
+  <si>
+    <t>61,27,34,51,4,0,6,0,2,6,19,0</t>
+  </si>
+  <si>
+    <t>35-29,9-14</t>
+  </si>
+  <si>
+    <t>8-4,44-48</t>
+  </si>
+  <si>
+    <t>25-20,33-38</t>
+  </si>
+  <si>
+    <t>45-49,24-30</t>
+  </si>
+  <si>
+    <t>sh5wh10sh8br2wo9br3wh4wh6de0or11or6br11wo3wo4or5wh12sh8sh10wo9</t>
+  </si>
+  <si>
+    <t>shorwhxxbrwoxxxxxx</t>
+  </si>
+  <si>
+    <t>6,4,5,10</t>
+  </si>
+  <si>
+    <t>4,0,3,2</t>
+  </si>
+  <si>
+    <t>2,4,2,4</t>
+  </si>
+  <si>
+    <t>0,0,0,0</t>
+  </si>
+  <si>
+    <t>1,4,3,10,5,11,7,5,5,4,2</t>
+  </si>
+  <si>
+    <t>28,24,52,38,42</t>
+  </si>
+  <si>
+    <t>3,0,0,0,2</t>
+  </si>
+  <si>
+    <t>10,1,24,4,0,0</t>
+  </si>
+  <si>
+    <t>0,0,12,0,0,0</t>
+  </si>
+  <si>
+    <t>38,3,24,9,1,1</t>
+  </si>
+  <si>
+    <t>12,2,40,6,4,4</t>
+  </si>
+  <si>
+    <t>62,18,40,44,6,2,6,0,4,0,14,0</t>
+  </si>
+  <si>
+    <t>36,17,19,27,2,0,7,5,3,0,9,0</t>
+  </si>
+  <si>
+    <t>47,21,26,37,2,2,6,4,0,0,17,0</t>
+  </si>
+  <si>
+    <t>58,18,40,44,6,2,6,0,4,0,14,0</t>
+  </si>
+  <si>
+    <t>14-9,22-28,</t>
+  </si>
+  <si>
+    <t>12-8,29-34</t>
+  </si>
+  <si>
+    <t>40-35,18-24</t>
+  </si>
+  <si>
+    <t>25-20,30-36</t>
+  </si>
+  <si>
+    <t>or5sh2sh6wh8wo10wo9wh3br4wh3wh11wo4wo8or11sh6br5de0sh12br9or10</t>
+  </si>
+  <si>
+    <t>woshxxxxxxwhxxorbr</t>
+  </si>
+  <si>
+    <t>4,10,9,6</t>
+  </si>
+  <si>
+    <t>4,0,3,4</t>
+  </si>
+  <si>
+    <t>0,6,4,2</t>
+  </si>
+  <si>
+    <t>0,2,0,0</t>
+  </si>
+  <si>
+    <t>1,7,5,10,12,15,6,6,5,5,2</t>
+  </si>
+  <si>
+    <t>45,48,49,73,42</t>
+  </si>
+  <si>
+    <t>7,2,2,1,1</t>
+  </si>
+  <si>
+    <t>0,0,22,4,0,0</t>
+  </si>
+  <si>
+    <t>23,2,39,4,6,4</t>
+  </si>
+  <si>
+    <t>9,3,45,9,1,1</t>
+  </si>
+  <si>
+    <t>2,0,41,7,6,4</t>
+  </si>
+  <si>
+    <t>51,27,24,39,4,0,8,4,1,10,12,0</t>
+  </si>
+  <si>
+    <t>72,33,39,57,7,2,6,12,1,3,17,0</t>
+  </si>
+  <si>
+    <t>87,42,45,62,5,11,9,13,7,0,22,0</t>
+  </si>
+  <si>
+    <t>87,43,44,63,3,7,14,0,10,5,28,0</t>
+  </si>
+  <si>
+    <t>or8or10de0br3wh4wo5wh9wo6wh9br11wo6sh12br2wo10wh3or11sh5sh8sh4</t>
+  </si>
+  <si>
+    <t>shorxxwoxxxxwhxxbr</t>
+  </si>
+  <si>
+    <t>8-4,30-35</t>
+  </si>
+  <si>
+    <t>31-37,18-13</t>
+  </si>
+  <si>
+    <t>22-16,45-41</t>
+  </si>
+  <si>
+    <t>44-48,19-25</t>
+  </si>
+  <si>
+    <t>8,3,10,5</t>
+  </si>
+  <si>
+    <t>1,1,1,5</t>
+  </si>
+  <si>
+    <t>6,2,6,0</t>
+  </si>
+  <si>
+    <t>4,5,4,4,9,11,9,8,1,0</t>
+  </si>
+  <si>
+    <t>42,24,47,54,42</t>
+  </si>
+  <si>
+    <t>5,2,1,0,0</t>
+  </si>
+  <si>
+    <t>9,1,39,17,4,2</t>
+  </si>
+  <si>
+    <t>8,0,7,1,0,0</t>
+  </si>
+  <si>
+    <t>15,4,45,1,4,3</t>
+  </si>
+  <si>
+    <t>6,2,22,2,0,0</t>
+  </si>
+  <si>
+    <t>68,30,38,57,4,0,7,4,7,5,14,0</t>
+  </si>
+  <si>
+    <t>23,17,6,18,2,0,3,0,1,4,12,0</t>
+  </si>
+  <si>
+    <t>80,38,44,49,3,13,15,0,5,0,31,0</t>
+  </si>
+  <si>
+    <t>68,44,24,49,4,0,15,8,0,4,32,0</t>
+  </si>
+  <si>
+    <t>22-28, 9-14</t>
+  </si>
+  <si>
+    <t>12-7,46-42</t>
+  </si>
+  <si>
+    <t>36-41,24-29</t>
+  </si>
+  <si>
+    <t>40-45,18-24</t>
+  </si>
+  <si>
+    <t>wh5br2wo6sh8br10or9de0wo4wh3wh11br4sh3sh11or6wh5wo8wo12or9sh10</t>
+  </si>
+  <si>
+    <t>brxxwoorxxxxxxwhsh</t>
+  </si>
+  <si>
+    <t>8,7,8,10</t>
+  </si>
+  <si>
+    <t>0,1,5,0</t>
+  </si>
+  <si>
+    <t>8,6,0,8</t>
+  </si>
+  <si>
+    <t>2,3,8,8,7,9,9,12,6,6,2</t>
+  </si>
+  <si>
+    <t>65,43,48,72,101</t>
+  </si>
+  <si>
+    <t>9,1,1,1,2</t>
+  </si>
+  <si>
+    <t>17,2,43,30,3,3</t>
+  </si>
+  <si>
+    <t>7,2,49,1,2,2</t>
+  </si>
+  <si>
+    <t>10,0,60,3,8,6</t>
+  </si>
+  <si>
+    <t>13,2,31,2,1,0</t>
+  </si>
+  <si>
+    <t>108,54,54,88,6,0,14,5,5,5,39,0</t>
+  </si>
+  <si>
+    <t>88,33,55,73,5,2,8,9,1,4,19,0</t>
+  </si>
+  <si>
+    <t>60,24,36,51,1,0,8,9,2,0,13,0</t>
+  </si>
+  <si>
+    <t>100,38,62,71,3,11,15,0,7,0,31,0</t>
+  </si>
+  <si>
+    <t>35-40,12-17</t>
+  </si>
+  <si>
+    <t>25-31,33-28</t>
+  </si>
+  <si>
+    <t>39-43,16-11</t>
+  </si>
+  <si>
+    <t>14-9,36-41</t>
+  </si>
+  <si>
+    <t>wo6wo2br5or3sh4sh9wo19sh8de0or11br3wh8wh10sh5wh6wh4br9wo12or11</t>
+  </si>
+  <si>
+    <t>brxxorxxxxxxwowhsh</t>
+  </si>
+  <si>
+    <t>8,6,10,6</t>
+  </si>
+  <si>
+    <t>5,0,5,2</t>
+  </si>
+  <si>
+    <t>2,6,0,2</t>
+  </si>
+  <si>
+    <t>1,0,1,2</t>
+  </si>
+  <si>
+    <t>2,2,9,6,5,7,6,8,9,4,5</t>
+  </si>
+  <si>
+    <t>46,33,72,73,31</t>
+  </si>
+  <si>
+    <t>9,4,1,1,1</t>
+  </si>
+  <si>
+    <t>8,2,44,6,3,1</t>
+  </si>
+  <si>
+    <t>0,0,32,4,1,0</t>
+  </si>
+  <si>
+    <t>15,2,41,2,5,3</t>
+  </si>
+  <si>
+    <t>4,1,32,0,7,4</t>
+  </si>
+  <si>
+    <t>83,36,47,70,2,0,11,0,6,3,27,0</t>
+  </si>
+  <si>
+    <t>72,38,34,53,3,0,16,0,3,2,33,0</t>
+  </si>
+  <si>
+    <t>64,25,39,49,2,0,13,0,1,2,22,0</t>
+  </si>
+  <si>
+    <t>57,18,39,5,7,6,0,2,0,16,0</t>
+  </si>
+  <si>
     <t>red</t>
   </si>
   <si>
-    <t>39-43,19-24</t>
-  </si>
-  <si>
-    <t>28-34,18-24</t>
-  </si>
-  <si>
-    <t>31-37,9-14</t>
-  </si>
-  <si>
-    <t>12-7,30-35</t>
-  </si>
-  <si>
-    <t>wo5sh2wh6br10br9wh4br3wo8sh3wo11or5or8or4wh6de0wh10sh11sh12wo9</t>
-  </si>
-  <si>
-    <t>whxxorwoxxxxxxshbr</t>
-  </si>
-  <si>
-    <t>6,9,6,10</t>
-  </si>
-  <si>
-    <t>4,0,4,0</t>
-  </si>
-  <si>
-    <t>2,6,0,8</t>
-  </si>
-  <si>
-    <t>0,1,0,2</t>
-  </si>
-  <si>
-    <t>2,2,2,11,13,9,7,5,9,3,1</t>
-  </si>
-  <si>
-    <t>40,35,28,100,73</t>
-  </si>
-  <si>
-    <t>10,3,2,2,1</t>
-  </si>
-  <si>
-    <t>11,4,33,3,0,0</t>
-  </si>
-  <si>
-    <t>4,2,57,5,12,7</t>
-  </si>
-  <si>
-    <t>20,1,22,3,0,0</t>
-  </si>
-  <si>
-    <t>3,1,50,3,6,4</t>
-  </si>
-  <si>
-    <t>77,36,41,67,1,0,9,10,4,7,15,0</t>
-  </si>
-  <si>
-    <t>52,15,37,40,2,6,4,4,5,0,6,0</t>
-  </si>
-  <si>
-    <t>121,57,64,85,7,13,16,0,7,6,44,0</t>
-  </si>
-  <si>
-    <t>94,45,49,57,6,15,16,0,3,5,37,0</t>
-  </si>
-  <si>
-    <t>31-25,14-9</t>
-  </si>
-  <si>
-    <t>46-41,30-35</t>
-  </si>
-  <si>
-    <t>44-48,16-22</t>
-  </si>
-  <si>
-    <t>12-8,5-9</t>
-  </si>
-  <si>
-    <t>wo8or4br11br10wo3wo6wo12br5de0or11wh5wo9wh2wh9sh4sh10or6sh3sh8</t>
-  </si>
-  <si>
-    <t>xxwoxxxxshxxwhorbr</t>
-  </si>
-  <si>
-    <t>7,7,10,6</t>
-  </si>
-  <si>
-    <t>5,1,1,4</t>
-  </si>
-  <si>
-    <t>2,6,6,0</t>
-  </si>
-  <si>
-    <t>3,2,5,2,7,6,10,9,6,3,2</t>
-  </si>
-  <si>
-    <t>50,35,61,37,39</t>
-  </si>
-  <si>
-    <t>4,1,0,0,0</t>
-  </si>
-  <si>
-    <t>14,7,33,9,0,0</t>
-  </si>
-  <si>
-    <t>18,2,31,10,0,0</t>
-  </si>
-  <si>
-    <t>4,0,41,0,4,3</t>
-  </si>
-  <si>
-    <t>0,0,21,2,1,1</t>
-  </si>
-  <si>
-    <t>62,30,32,46,4,0,12,9,3,0,18,0</t>
-  </si>
-  <si>
-    <t>53,20,33,42,0,0,11,0,3,0,17,0</t>
-  </si>
-  <si>
-    <t>83,44,39,56,3,0,24,0,2,0,42,0</t>
-  </si>
-  <si>
-    <t>43,21,22,35,2,0,6,0,1,0,20,0</t>
-  </si>
-  <si>
-    <t>22-28,31-25</t>
-  </si>
-  <si>
-    <t>39-43,18-24</t>
-  </si>
-  <si>
-    <t>12-8, 19-14</t>
-  </si>
-  <si>
-    <t>41-36,29-35</t>
-  </si>
-  <si>
-    <t>or9wo12de0wh10sh5br6or11br8sh4wo11wo3sh4sh3wh9wh10or8wo6wh2br5</t>
-  </si>
-  <si>
-    <t>brorxxxxshwoxxxxwh</t>
-  </si>
-  <si>
-    <t>5,5,10,6</t>
-  </si>
-  <si>
-    <t>4,3,5,2</t>
-  </si>
-  <si>
-    <t>0,2,2,4</t>
-  </si>
-  <si>
-    <t>1,0,1,0</t>
-  </si>
-  <si>
-    <t>3,3,7,4,13,8,6,4,5,4,2</t>
-  </si>
-  <si>
-    <t>60,56,47,49,35</t>
-  </si>
-  <si>
-    <t>3,2,2,1,1</t>
-  </si>
-  <si>
-    <t>16,2,32,0,4,3</t>
-  </si>
-  <si>
-    <t>0,0,24,0,1,1</t>
-  </si>
-  <si>
-    <t>1,0,47,5,2,1</t>
-  </si>
-  <si>
-    <t>15,0,32,2,2,2</t>
-  </si>
-  <si>
-    <t>70,33,37,47,3,13,7,8,2,0,23,0</t>
-  </si>
-  <si>
-    <t>50,25,25,43,2,0,5,0,0,5,20,0</t>
-  </si>
-  <si>
-    <t>83,38,45,69,2,2,10,4,7,2,25,0</t>
-  </si>
-  <si>
-    <t>61,27,34,51,4,0,6,0,2,6,19,0</t>
-  </si>
-  <si>
-    <t>35-29,9-14</t>
-  </si>
-  <si>
-    <t>8-4,44-48</t>
-  </si>
-  <si>
-    <t>25-20,33-38</t>
-  </si>
-  <si>
-    <t>45-49,24-30</t>
-  </si>
-  <si>
-    <t>sh5wh10sh8br2wo9br3wh4wh6de0or11or6br11wo3wo4or5wh12sh8sh10wo9</t>
-  </si>
-  <si>
-    <t>shorwhxxbrwoxxxxxx</t>
-  </si>
-  <si>
-    <t>6,4,5,10</t>
-  </si>
-  <si>
-    <t>4,0,3,2</t>
-  </si>
-  <si>
-    <t>2,4,2,4</t>
-  </si>
-  <si>
-    <t>0,0,0,0</t>
-  </si>
-  <si>
-    <t>1,4,3,10,5,11,7,5,5,4,2</t>
-  </si>
-  <si>
-    <t>28,24,52,38,42</t>
-  </si>
-  <si>
-    <t>3,0,0,0,2</t>
-  </si>
-  <si>
-    <t>10,1,24,4,0,0</t>
-  </si>
-  <si>
-    <t>0,0,12,0,0,0</t>
-  </si>
-  <si>
-    <t>38,3,24,9,1,1</t>
-  </si>
-  <si>
-    <t>12,2,40,6,4,4</t>
-  </si>
-  <si>
-    <t>62,18,40,44,6,2,6,0,4,0,14,0</t>
-  </si>
-  <si>
-    <t>36,17,19,27,2,0,7,5,3,0,9,0</t>
-  </si>
-  <si>
-    <t>47,21,26,37,2,2,6,4,0,0,17,0</t>
-  </si>
-  <si>
-    <t>58,18,40,44,6,2,6,0,4,0,14,0</t>
-  </si>
-  <si>
-    <t>14-9,22-28,</t>
-  </si>
-  <si>
-    <t>12-8,29-34</t>
-  </si>
-  <si>
-    <t>40-35,18-24</t>
-  </si>
-  <si>
-    <t>25-20,30-36</t>
-  </si>
-  <si>
-    <t>or5sh2sh6wh8wo10wo9wh3br4wh3wh11wo4wo8or11sh6br5de0sh12br9or10</t>
-  </si>
-  <si>
-    <t>woshxxxxxxwhxxorbr</t>
-  </si>
-  <si>
-    <t>4,10,9,6</t>
-  </si>
-  <si>
-    <t>4,0,3,4</t>
-  </si>
-  <si>
-    <t>0,6,4,2</t>
-  </si>
-  <si>
-    <t>0,2,0,0</t>
-  </si>
-  <si>
-    <t>1,7,5,10,12,15,6,6,5,5,2</t>
-  </si>
-  <si>
-    <t>45,48,49,73,42</t>
-  </si>
-  <si>
-    <t>7,2,2,1,1</t>
-  </si>
-  <si>
-    <t>0,0,22,4,0,0</t>
-  </si>
-  <si>
-    <t>23,2,39,4,6,4</t>
-  </si>
-  <si>
-    <t>9,3,45,9,1,1</t>
-  </si>
-  <si>
-    <t>2,0,41,7,6,4</t>
-  </si>
-  <si>
-    <t>51,27,24,39,4,0,8,4,1,10,12,0</t>
-  </si>
-  <si>
-    <t>72,33,39,57,7,2,6,12,1,3,17,0</t>
-  </si>
-  <si>
-    <t>87,42,45,62,5,11,9,13,7,0,22,0</t>
-  </si>
-  <si>
-    <t>87,43,44,63,3,7,14,0,10,5,28,0</t>
+    <t>35-40,22-16</t>
+  </si>
+  <si>
+    <t>34-28,9-13</t>
+  </si>
+  <si>
+    <t>19-14,31-37</t>
+  </si>
+  <si>
+    <t>12-17,33-27</t>
+  </si>
+  <si>
+    <t>br6wo2sh5br3wo9or10wh8wh8or4wh11br3wo4sh10wh5or6sh11sh9de0wo12</t>
+  </si>
+  <si>
+    <t>whorxxxxshwoxxbrxx</t>
+  </si>
+  <si>
+    <t>8,10,7,9</t>
+  </si>
+  <si>
+    <t>2,3,1,1</t>
+  </si>
+  <si>
+    <t>6,4,4,8</t>
+  </si>
+  <si>
+    <t>0,1,0,0</t>
+  </si>
+  <si>
+    <t>2,3,7,8,9,7,7,4,3,7,1</t>
+  </si>
+  <si>
+    <t>35,41,55,75,63</t>
+  </si>
+  <si>
+    <t>9,1,0,1,1</t>
+  </si>
+  <si>
+    <t>10,3,38,10,1,1</t>
+  </si>
+  <si>
+    <t>7,1,40,2,2,1</t>
+  </si>
+  <si>
+    <t>11,3,42,4,8,6</t>
+  </si>
+  <si>
+    <t>0,0,43,7,1,0</t>
+  </si>
+  <si>
+    <t>56,18,38,47,3,0,6,5,3,0,10,0</t>
+  </si>
+  <si>
+    <t>76,36,40,60,3,0,13,4,2,0,30,0</t>
+  </si>
+  <si>
+    <t>66,16,50,50,7,0,9,0,1,0,15,0</t>
+  </si>
+  <si>
+    <t>92,44,48,77,2,0,13,8,9,0,27,0</t>
   </si>
 </sst>
 </file>
@@ -1434,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C339AD-142A-1A41-A84D-50BBD9E5CBA0}">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1689,7 +1935,7 @@
         <v>84</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>85</v>
@@ -2110,7 +2356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>198</v>
       </c>
@@ -2192,34 +2438,34 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -2228,37 +2474,37 @@
         <v>3</v>
       </c>
       <c r="M10" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="U10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="W10" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="X10">
         <v>72</v>
@@ -2272,31 +2518,31 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>54</v>
@@ -2308,37 +2554,37 @@
         <v>4</v>
       </c>
       <c r="M11" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="X11">
         <v>63</v>
@@ -2352,34 +2598,34 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2388,37 +2634,37 @@
         <v>4</v>
       </c>
       <c r="M12" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="X12">
         <v>67</v>
@@ -2432,34 +2678,34 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -2468,37 +2714,37 @@
         <v>4</v>
       </c>
       <c r="M13" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="X13">
         <v>64</v>
@@ -2512,34 +2758,34 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -2548,37 +2794,37 @@
         <v>3</v>
       </c>
       <c r="M14" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="X14">
         <v>82</v>
@@ -2591,15 +2837,330 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>216</v>
+        <v>322</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="X15">
+        <v>63</v>
       </c>
       <c r="Y15">
         <v>1411</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+      <c r="Z15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="X16">
+        <v>80</v>
+      </c>
+      <c r="Y16">
+        <v>1406</v>
+      </c>
+      <c r="Z16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="X17">
+        <v>71</v>
+      </c>
+      <c r="Y17">
+        <v>1402</v>
+      </c>
+      <c r="Z17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="X18">
+        <v>66</v>
+      </c>
+      <c r="Y18">
+        <v>1397</v>
+      </c>
+      <c r="Z18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CatanDB.xlsx
+++ b/CatanDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklasbille/projects/CatanAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A469E0-4F97-5A44-B55C-671D3649CA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AAC446-3F6E-B349-9107-E425D41D8980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18800" yWindow="500" windowWidth="10000" windowHeight="17500" xr2:uid="{36430CA0-0917-3746-988E-C7102F59D220}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="424">
   <si>
     <t>Map string</t>
   </si>
@@ -1182,9 +1182,6 @@
     <t>57,18,39,5,7,6,0,2,0,16,0</t>
   </si>
   <si>
-    <t>red</t>
-  </si>
-  <si>
     <t>35-40,22-16</t>
   </si>
   <si>
@@ -1246,6 +1243,72 @@
   </si>
   <si>
     <t>92,44,48,77,2,0,13,8,9,0,27,0</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>25-20,</t>
+  </si>
+  <si>
+    <t>5-2,17-12</t>
+  </si>
+  <si>
+    <t>28-22,14-9</t>
+  </si>
+  <si>
+    <t>39-44,29-23</t>
+  </si>
+  <si>
+    <t>sh11sh4br8or12wh6br3sh10wo9or5wh11wh9or5sh10wo4de0wo2br8wo3wh6</t>
+  </si>
+  <si>
+    <t>xxwhshorxxwoxxbrxx</t>
+  </si>
+  <si>
+    <t>6,4,10,4</t>
+  </si>
+  <si>
+    <t>5,3,3,0</t>
+  </si>
+  <si>
+    <t>0,0,2,4</t>
+  </si>
+  <si>
+    <t>1,1,1,0</t>
+  </si>
+  <si>
+    <t>4,4,4,6,6,9,9,3,4,2</t>
+  </si>
+  <si>
+    <t>23,47,27,25,32</t>
+  </si>
+  <si>
+    <t>3,3,2,0,1</t>
+  </si>
+  <si>
+    <t>0,0,25,2,1,0</t>
+  </si>
+  <si>
+    <t>29,1,15,5,1,0</t>
+  </si>
+  <si>
+    <t>7,1,42,1,5,4</t>
+  </si>
+  <si>
+    <t>2,1,18,1,2,0</t>
+  </si>
+  <si>
+    <t>39,11,28,31,4,0,4,0,3,0,8,0</t>
+  </si>
+  <si>
+    <t>32,14,18,26,2,0,4,4,6,0,4,0</t>
+  </si>
+  <si>
+    <t>57,18.39,44,5,2,6,4,2,0,12,0</t>
+  </si>
+  <si>
+    <t>35,10,25,32,1,0,2,4,1,0,5,0</t>
   </si>
 </sst>
 </file>
@@ -1680,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C339AD-142A-1A41-A84D-50BBD9E5CBA0}">
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AA27" sqref="AA27"/>
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3078,34 +3141,34 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -3114,37 +3177,37 @@
         <v>2</v>
       </c>
       <c r="M18" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="X18">
         <v>66</v>
@@ -3157,10 +3220,92 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>403</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="X19">
+        <v>59</v>
+      </c>
+      <c r="Y19">
+        <v>1418</v>
+      </c>
+      <c r="Z19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y20">
+        <v>1413</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
